--- a/panduan/Rev_Manualisasii1.xlsx
+++ b/panduan/Rev_Manualisasii1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sim23\panduan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D464343-45CD-44A4-A3C5-FE386C982047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D223A-5BF9-42FC-B888-48D29782B972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-30" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{ADB28F7E-1517-4DD0-AC52-7FAE16330C3D}"/>
+    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{ADB28F7E-1517-4DD0-AC52-7FAE16330C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Original" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1222,6 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1243,13 +1247,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1261,9 +1331,6 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,70 +1340,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5596,7 +5599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5606,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AB94F3-0249-45CE-B303-FAEDC5DA2481}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,7 +5965,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,13 +6038,13 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
-      <c r="N3" s="106" t="s">
+      <c r="N3" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
       <c r="T3" s="40" t="s">
         <v>50</v>
       </c>
@@ -6174,36 +6177,36 @@
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
       <c r="I9" s="96"/>
-      <c r="N9" s="107" t="s">
+      <c r="N9" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
     </row>
     <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
@@ -6287,14 +6290,14 @@
         <f>SUM(B12:B19)</f>
         <v>244.75</v>
       </c>
-      <c r="O12" s="108" t="s">
+      <c r="O12" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="99">
@@ -6530,14 +6533,14 @@
         <f t="shared" si="0"/>
         <v>745.54</v>
       </c>
-      <c r="O17" s="108" t="s">
+      <c r="O17" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="99">
@@ -6745,17 +6748,17 @@
       <c r="I22" s="97"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="106"/>
     </row>
     <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
@@ -7253,8 +7256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0D4331-9426-4836-971D-2307E197523C}">
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7454,16 +7457,16 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="N6" s="120" t="s">
+      <c r="N6" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
@@ -7497,14 +7500,14 @@
       <c r="L7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="120"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
@@ -7538,14 +7541,14 @@
       <c r="L8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -7573,14 +7576,14 @@
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="120"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
@@ -7608,34 +7611,34 @@
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -7648,18 +7651,18 @@
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
-      <c r="G13" s="124" t="s">
+      <c r="G13" s="117" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="40"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="133" t="s">
+      <c r="M13" s="112"/>
+      <c r="N13" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="134"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="133"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -7678,9 +7681,9 @@
       <c r="F14" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="124"/>
+      <c r="G14" s="117"/>
       <c r="I14" s="40"/>
-      <c r="M14" s="137"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="37" t="s">
         <v>30</v>
       </c>
@@ -7809,14 +7812,14 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="M17" s="138"/>
-      <c r="N17" s="135" t="s">
+      <c r="M17" s="114"/>
+      <c r="N17" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
@@ -7846,7 +7849,7 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="M18" s="139"/>
+      <c r="M18" s="115"/>
       <c r="N18" s="37" t="s">
         <v>30</v>
       </c>
@@ -8037,7 +8040,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
-      <c r="G26" s="124" t="s">
+      <c r="G26" s="117" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="62"/>
@@ -8059,7 +8062,7 @@
       <c r="F27" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="124"/>
+      <c r="G27" s="117"/>
     </row>
     <row r="28" spans="1:18" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
@@ -8413,38 +8416,38 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="115" t="s">
+      <c r="A39" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="140" t="s">
+      <c r="B39" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="115"/>
-      <c r="B40" s="121" t="s">
+      <c r="A40" s="138"/>
+      <c r="B40" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="124" t="s">
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="117" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
-      <c r="B41" s="121"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="47" t="s">
         <v>72</v>
       </c>
@@ -8460,10 +8463,10 @@
       <c r="G41" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="124"/>
+      <c r="H41" s="117"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="117">
+      <c r="A42" s="139">
         <v>44256</v>
       </c>
       <c r="B42" s="37">
@@ -8494,7 +8497,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="118"/>
+      <c r="A43" s="140"/>
       <c r="B43" s="37">
         <v>3</v>
       </c>
@@ -8524,19 +8527,19 @@
       <c r="I43" t="s">
         <v>108</v>
       </c>
-      <c r="N43" s="120" t="s">
+      <c r="N43" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="118"/>
+      <c r="S43" s="118"/>
+      <c r="T43" s="118"/>
+      <c r="U43" s="118"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="141"/>
       <c r="B44" s="37">
         <v>2</v>
       </c>
@@ -8563,17 +8566,17 @@
       <c r="H44" s="37">
         <v>13</v>
       </c>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="120"/>
-      <c r="T44" s="120"/>
-      <c r="U44" s="120"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="118"/>
+      <c r="S44" s="118"/>
+      <c r="T44" s="118"/>
+      <c r="U44" s="118"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="117">
+      <c r="A45" s="139">
         <v>44257</v>
       </c>
       <c r="B45" s="37">
@@ -8602,17 +8605,17 @@
       <c r="H45" s="37">
         <v>2</v>
       </c>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="120"/>
-      <c r="T45" s="120"/>
-      <c r="U45" s="120"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="118"/>
+      <c r="S45" s="118"/>
+      <c r="T45" s="118"/>
+      <c r="U45" s="118"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
+      <c r="A46" s="140"/>
       <c r="B46" s="37">
         <v>6</v>
       </c>
@@ -8639,17 +8642,17 @@
       <c r="H46" s="37">
         <v>8</v>
       </c>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="120"/>
-      <c r="T46" s="120"/>
-      <c r="U46" s="120"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="118"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
+      <c r="A47" s="141"/>
       <c r="B47" s="37">
         <v>5</v>
       </c>
@@ -8676,17 +8679,17 @@
       <c r="H47" s="37">
         <v>11</v>
       </c>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="120"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="120"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="117">
+      <c r="A48" s="139">
         <v>44258</v>
       </c>
       <c r="B48" s="37">
@@ -8715,17 +8718,17 @@
       <c r="H48" s="37">
         <v>8</v>
       </c>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="120"/>
-      <c r="T48" s="120"/>
-      <c r="U48" s="120"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="118"/>
+      <c r="T48" s="118"/>
+      <c r="U48" s="118"/>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
+      <c r="A49" s="140"/>
       <c r="B49" s="37">
         <v>7</v>
       </c>
@@ -8752,17 +8755,17 @@
       <c r="H49" s="37">
         <v>9</v>
       </c>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="120"/>
-      <c r="T49" s="120"/>
-      <c r="U49" s="120"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="118"/>
+      <c r="R49" s="118"/>
+      <c r="S49" s="118"/>
+      <c r="T49" s="118"/>
+      <c r="U49" s="118"/>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50" s="119"/>
+      <c r="A50" s="141"/>
       <c r="B50" s="37">
         <v>8</v>
       </c>
@@ -8791,106 +8794,106 @@
       </c>
     </row>
     <row r="54" spans="1:51" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B54" s="125" t="s">
+      <c r="B54" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B56" s="71"/>
       <c r="C56" s="49"/>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="122" t="s">
+      <c r="C57" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="122" t="s">
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="123"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="128" t="s">
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="N57" s="124" t="s">
+      <c r="N57" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="O57" s="131" t="s">
+      <c r="O57" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="P57" s="131" t="s">
+      <c r="P57" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="R57" s="111" t="s">
+      <c r="R57" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="S57" s="111" t="s">
+      <c r="S57" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="T57" s="111" t="s">
+      <c r="T57" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="U57" s="112" t="s">
+      <c r="U57" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
-      <c r="X57" s="112"/>
-      <c r="Y57" s="112"/>
-      <c r="Z57" s="112"/>
-      <c r="AA57" s="112"/>
-      <c r="AB57" s="112"/>
-      <c r="AC57" s="112"/>
-      <c r="AD57" s="112"/>
-      <c r="AE57" s="112"/>
-      <c r="AF57" s="112"/>
-      <c r="AG57" s="112"/>
-      <c r="AH57" s="112"/>
-      <c r="AI57" s="112"/>
-      <c r="AJ57" s="112"/>
-      <c r="AK57" s="112"/>
-      <c r="AL57" s="112"/>
-      <c r="AM57" s="112"/>
-      <c r="AN57" s="112"/>
-      <c r="AO57" s="112"/>
-      <c r="AP57" s="112"/>
-      <c r="AQ57" s="112"/>
-      <c r="AR57" s="112"/>
-      <c r="AS57" s="112"/>
-      <c r="AT57" s="112"/>
-      <c r="AU57" s="112"/>
-      <c r="AV57" s="112"/>
-      <c r="AW57" s="112"/>
-      <c r="AX57" s="112"/>
-      <c r="AY57" s="112"/>
+      <c r="V57" s="135"/>
+      <c r="W57" s="135"/>
+      <c r="X57" s="135"/>
+      <c r="Y57" s="135"/>
+      <c r="Z57" s="135"/>
+      <c r="AA57" s="135"/>
+      <c r="AB57" s="135"/>
+      <c r="AC57" s="135"/>
+      <c r="AD57" s="135"/>
+      <c r="AE57" s="135"/>
+      <c r="AF57" s="135"/>
+      <c r="AG57" s="135"/>
+      <c r="AH57" s="135"/>
+      <c r="AI57" s="135"/>
+      <c r="AJ57" s="135"/>
+      <c r="AK57" s="135"/>
+      <c r="AL57" s="135"/>
+      <c r="AM57" s="135"/>
+      <c r="AN57" s="135"/>
+      <c r="AO57" s="135"/>
+      <c r="AP57" s="135"/>
+      <c r="AQ57" s="135"/>
+      <c r="AR57" s="135"/>
+      <c r="AS57" s="135"/>
+      <c r="AT57" s="135"/>
+      <c r="AU57" s="135"/>
+      <c r="AV57" s="135"/>
+      <c r="AW57" s="135"/>
+      <c r="AX57" s="135"/>
+      <c r="AY57" s="135"/>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
-      <c r="B58" s="116"/>
+      <c r="A58" s="137"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="47" t="s">
         <v>72</v>
       </c>
@@ -8921,13 +8924,13 @@
       <c r="L58" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="M58" s="129"/>
-      <c r="N58" s="127"/>
-      <c r="O58" s="131"/>
-      <c r="P58" s="131"/>
-      <c r="R58" s="132"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="111"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="130"/>
+      <c r="P58" s="130"/>
+      <c r="R58" s="131"/>
+      <c r="S58" s="119"/>
+      <c r="T58" s="119"/>
       <c r="U58">
         <v>1</v>
       </c>
@@ -9154,9 +9157,9 @@
       <c r="P60" s="37">
         <v>0</v>
       </c>
-      <c r="Q60" s="141">
-        <f>SUM(H60:L60)</f>
-        <v>3813.7958333333336</v>
+      <c r="Q60" s="103">
+        <f>(SUM(H60:L60)+P70)/960</f>
+        <v>4.7280373263888889</v>
       </c>
       <c r="R60" s="46" t="s">
         <v>90</v>
@@ -9661,6 +9664,24 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>4.1929999999999996</v>
+      </c>
+      <c r="I68">
+        <v>0.8</v>
+      </c>
+      <c r="J68" s="103">
+        <f>(J59-E59)/60</f>
+        <v>4.7633750000000008</v>
+      </c>
+      <c r="K68">
+        <f>(K59-F59)/60</f>
+        <v>5.8918333333333335</v>
+      </c>
+      <c r="L68">
+        <f>(L59-G59)/60</f>
+        <v>4.3791249999999993</v>
+      </c>
       <c r="O68" s="76">
         <f>SUM(O59:O66)/9</f>
         <v>-4.5131328125000003</v>
@@ -9676,38 +9697,41 @@
         <f>M59/960</f>
         <v>5.3583360460069448E-3</v>
       </c>
+      <c r="P70">
+        <v>725.12</v>
+      </c>
     </row>
     <row r="71" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="110"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="110"/>
-      <c r="F71" s="110"/>
-      <c r="G71" s="110"/>
-      <c r="H71" s="110"/>
-      <c r="I71" s="110"/>
-      <c r="J71" s="110"/>
-      <c r="K71" s="110"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
       <c r="M71">
         <f t="shared" ref="M71:M78" si="28">M60/960</f>
         <v>4.9250388816550923E-3</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="110"/>
-      <c r="B72" s="110"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="110"/>
-      <c r="E72" s="110"/>
-      <c r="F72" s="110"/>
-      <c r="G72" s="110"/>
-      <c r="H72" s="110"/>
-      <c r="I72" s="110"/>
-      <c r="J72" s="110"/>
-      <c r="K72" s="110"/>
+      <c r="A72" s="134"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="134"/>
+      <c r="F72" s="134"/>
+      <c r="G72" s="134"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134"/>
       <c r="M72">
         <f t="shared" si="28"/>
         <v>5.5056233723958341E-3</v>
@@ -9717,17 +9741,17 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
-      <c r="B73" s="110"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="110"/>
-      <c r="F73" s="110"/>
-      <c r="G73" s="110"/>
-      <c r="H73" s="110"/>
-      <c r="I73" s="110"/>
-      <c r="J73" s="110"/>
-      <c r="K73" s="110"/>
+      <c r="A73" s="134"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="134"/>
+      <c r="K73" s="134"/>
       <c r="M73">
         <f t="shared" si="28"/>
         <v>4.6684932002314817E-3</v>
@@ -9737,17 +9761,17 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
-      <c r="B74" s="110"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="110"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="110"/>
-      <c r="H74" s="110"/>
-      <c r="I74" s="110"/>
-      <c r="J74" s="110"/>
-      <c r="K74" s="110"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="134"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="134"/>
       <c r="M74">
         <f t="shared" si="28"/>
         <v>2.57611400462963E-3</v>
@@ -9757,17 +9781,17 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
-      <c r="B75" s="110"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="110"/>
-      <c r="E75" s="110"/>
-      <c r="F75" s="110"/>
-      <c r="G75" s="110"/>
-      <c r="H75" s="110"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="110"/>
-      <c r="K75" s="110"/>
+      <c r="A75" s="134"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
+      <c r="J75" s="134"/>
+      <c r="K75" s="134"/>
       <c r="M75">
         <f t="shared" si="28"/>
         <v>3.6468713831018522E-3</v>
@@ -9809,12 +9833,14 @@
     <sortCondition ref="G42:G50"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A71:K75"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:AY57"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
     <mergeCell ref="N6:U12"/>
     <mergeCell ref="N43:U49"/>
     <mergeCell ref="S57:S58"/>
@@ -9831,14 +9857,12 @@
     <mergeCell ref="R57:R58"/>
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A71:K75"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:AY57"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/panduan/Rev_Manualisasii1.xlsx
+++ b/panduan/Rev_Manualisasii1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sim23\panduan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D223A-5BF9-42FC-B888-48D29782B972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCDDE5-96BF-4189-BC86-FF84B00E81A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="345" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{ADB28F7E-1517-4DD0-AC52-7FAE16330C3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ADB28F7E-1517-4DD0-AC52-7FAE16330C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Original" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -961,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,6 +1236,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,81 +1329,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5609,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AB94F3-0249-45CE-B303-FAEDC5DA2481}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5965,7 +5955,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7256,8 +7246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0D4331-9426-4836-971D-2307E197523C}">
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7457,16 +7447,16 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="N6" s="118" t="s">
+      <c r="N6" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
@@ -7500,14 +7490,14 @@
       <c r="L7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
@@ -7541,14 +7531,14 @@
       <c r="L8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -7576,14 +7566,14 @@
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
@@ -7611,34 +7601,34 @@
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -7651,18 +7641,18 @@
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="125" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="40"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="132" t="s">
+      <c r="M13" s="137"/>
+      <c r="N13" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="133"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="135"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -7681,9 +7671,9 @@
       <c r="F14" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="117"/>
+      <c r="G14" s="125"/>
       <c r="I14" s="40"/>
-      <c r="M14" s="113"/>
+      <c r="M14" s="138"/>
       <c r="N14" s="37" t="s">
         <v>30</v>
       </c>
@@ -7705,27 +7695,27 @@
         <v>78</v>
       </c>
       <c r="B15" s="66">
-        <f t="shared" ref="B15:B23" si="1">($Q$15 * D2) / ($N$32 * $P$32)</f>
+        <f>($Q$15 * D2) / ($N$32 * $P$32)</f>
         <v>251.61750000000001</v>
       </c>
       <c r="C15" s="66">
-        <f t="shared" ref="C15:C23" si="2">($R$15 * D2) / ($N$33 * $P$33)</f>
+        <f t="shared" ref="C15:C23" si="1">($R$15 * D2) / ($N$33 * $P$33)</f>
         <v>49.6875</v>
       </c>
       <c r="D15" s="66">
-        <f t="shared" ref="D15:D23" si="3">($N$15 * D2) / ($N$29 * $P$29)</f>
+        <f t="shared" ref="D15:D23" si="2">($N$15 * D2) / ($N$29 * $P$29)</f>
         <v>285.80250000000001</v>
       </c>
       <c r="E15" s="66">
-        <f t="shared" ref="E15:E23" si="4">($O$15 * D2) / ($N$30 * $P$30)</f>
+        <f t="shared" ref="E15:E23" si="3">($O$15 * D2) / ($N$30 * $P$30)</f>
         <v>353.51</v>
       </c>
       <c r="F15" s="66">
-        <f t="shared" ref="F15:F23" si="5">($P$15 * D2) / ($N$31 * $P$31)</f>
+        <f t="shared" ref="F15:F23" si="4">($P$15 * D2) / ($N$31 * $P$31)</f>
         <v>262.7475</v>
       </c>
       <c r="G15" s="37">
-        <f t="shared" ref="G15:G23" si="6">F2</f>
+        <f t="shared" ref="G15:G23" si="5">F2</f>
         <v>7</v>
       </c>
       <c r="M15" s="55" t="s">
@@ -7760,27 +7750,27 @@
         <v>80</v>
       </c>
       <c r="B16" s="66">
+        <f t="shared" ref="B15:B23" si="6">($Q$15 * D3) / ($N$32 * $P$32)</f>
+        <v>107.61</v>
+      </c>
+      <c r="C16" s="66">
         <f t="shared" si="1"/>
-        <v>107.61</v>
-      </c>
-      <c r="C16" s="66">
+        <v>21.25</v>
+      </c>
+      <c r="D16" s="66">
         <f t="shared" si="2"/>
-        <v>21.25</v>
-      </c>
-      <c r="D16" s="66">
+        <v>122.23</v>
+      </c>
+      <c r="E16" s="66">
         <f t="shared" si="3"/>
-        <v>122.23</v>
-      </c>
-      <c r="E16" s="66">
+        <v>151.18666666666667</v>
+      </c>
+      <c r="F16" s="66">
         <f t="shared" si="4"/>
-        <v>151.18666666666667</v>
-      </c>
-      <c r="F16" s="66">
+        <v>112.37</v>
+      </c>
+      <c r="G16" s="37">
         <f t="shared" si="5"/>
-        <v>112.37</v>
-      </c>
-      <c r="G16" s="37">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -7789,67 +7779,67 @@
         <v>79</v>
       </c>
       <c r="B17" s="66">
+        <f t="shared" si="6"/>
+        <v>110.77500000000001</v>
+      </c>
+      <c r="C17" s="66">
         <f t="shared" si="1"/>
-        <v>110.77500000000001</v>
-      </c>
-      <c r="C17" s="66">
+        <v>21.875</v>
+      </c>
+      <c r="D17" s="66">
         <f t="shared" si="2"/>
-        <v>21.875</v>
-      </c>
-      <c r="D17" s="66">
+        <v>125.825</v>
+      </c>
+      <c r="E17" s="66">
         <f t="shared" si="3"/>
-        <v>125.825</v>
-      </c>
-      <c r="E17" s="66">
+        <v>155.63333333333333</v>
+      </c>
+      <c r="F17" s="66">
         <f t="shared" si="4"/>
-        <v>155.63333333333333</v>
-      </c>
-      <c r="F17" s="66">
+        <v>115.67500000000001</v>
+      </c>
+      <c r="G17" s="37">
         <f t="shared" si="5"/>
-        <v>115.67500000000001</v>
-      </c>
-      <c r="G17" s="37">
-        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="111" t="s">
+      <c r="M17" s="139"/>
+      <c r="N17" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="66">
+        <f t="shared" si="6"/>
+        <v>12.66</v>
+      </c>
+      <c r="C18" s="66">
         <f t="shared" si="1"/>
-        <v>12.66</v>
-      </c>
-      <c r="C18" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="66">
         <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="D18" s="66">
+        <v>14.38</v>
+      </c>
+      <c r="E18" s="66">
         <f t="shared" si="3"/>
-        <v>14.38</v>
-      </c>
-      <c r="E18" s="66">
+        <v>17.786666666666665</v>
+      </c>
+      <c r="F18" s="66">
         <f t="shared" si="4"/>
-        <v>17.786666666666665</v>
-      </c>
-      <c r="F18" s="66">
+        <v>13.22</v>
+      </c>
+      <c r="G18" s="37">
         <f t="shared" si="5"/>
-        <v>13.22</v>
-      </c>
-      <c r="G18" s="37">
-        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="M18" s="115"/>
+      <c r="M18" s="140"/>
       <c r="N18" s="37" t="s">
         <v>30</v>
       </c>
@@ -7871,27 +7861,27 @@
         <v>83</v>
       </c>
       <c r="B19" s="66">
+        <f t="shared" si="6"/>
+        <v>142.42500000000001</v>
+      </c>
+      <c r="C19" s="66">
         <f t="shared" si="1"/>
-        <v>142.42500000000001</v>
-      </c>
-      <c r="C19" s="66">
+        <v>28.125</v>
+      </c>
+      <c r="D19" s="66">
         <f t="shared" si="2"/>
-        <v>28.125</v>
-      </c>
-      <c r="D19" s="66">
+        <v>161.77500000000001</v>
+      </c>
+      <c r="E19" s="66">
         <f t="shared" si="3"/>
-        <v>161.77500000000001</v>
-      </c>
-      <c r="E19" s="66">
+        <v>200.1</v>
+      </c>
+      <c r="F19" s="66">
         <f t="shared" si="4"/>
-        <v>200.1</v>
-      </c>
-      <c r="F19" s="66">
+        <v>148.72499999999999</v>
+      </c>
+      <c r="G19" s="37">
         <f t="shared" si="5"/>
-        <v>148.72499999999999</v>
-      </c>
-      <c r="G19" s="37">
-        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M19" s="37" t="s">
@@ -7918,27 +7908,27 @@
         <v>82</v>
       </c>
       <c r="B20" s="66">
+        <f t="shared" si="6"/>
+        <v>110.77500000000001</v>
+      </c>
+      <c r="C20" s="66">
         <f t="shared" si="1"/>
-        <v>110.77500000000001</v>
-      </c>
-      <c r="C20" s="66">
+        <v>21.875</v>
+      </c>
+      <c r="D20" s="66">
         <f t="shared" si="2"/>
-        <v>21.875</v>
-      </c>
-      <c r="D20" s="66">
+        <v>125.825</v>
+      </c>
+      <c r="E20" s="66">
         <f t="shared" si="3"/>
-        <v>125.825</v>
-      </c>
-      <c r="E20" s="66">
+        <v>155.63333333333333</v>
+      </c>
+      <c r="F20" s="66">
         <f t="shared" si="4"/>
-        <v>155.63333333333333</v>
-      </c>
-      <c r="F20" s="66">
+        <v>115.67500000000001</v>
+      </c>
+      <c r="G20" s="37">
         <f t="shared" si="5"/>
-        <v>115.67500000000001</v>
-      </c>
-      <c r="G20" s="37">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -7947,27 +7937,27 @@
         <v>85</v>
       </c>
       <c r="B21" s="66">
+        <f t="shared" si="6"/>
+        <v>14.2425</v>
+      </c>
+      <c r="C21" s="66">
         <f t="shared" si="1"/>
-        <v>14.2425</v>
-      </c>
-      <c r="C21" s="66">
+        <v>2.8125</v>
+      </c>
+      <c r="D21" s="66">
         <f t="shared" si="2"/>
-        <v>2.8125</v>
-      </c>
-      <c r="D21" s="66">
+        <v>16.177500000000002</v>
+      </c>
+      <c r="E21" s="66">
         <f t="shared" si="3"/>
-        <v>16.177500000000002</v>
-      </c>
-      <c r="E21" s="66">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="F21" s="66">
         <f t="shared" si="4"/>
-        <v>20.010000000000002</v>
-      </c>
-      <c r="F21" s="66">
+        <v>14.8725</v>
+      </c>
+      <c r="G21" s="37">
         <f t="shared" si="5"/>
-        <v>14.8725</v>
-      </c>
-      <c r="G21" s="37">
-        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -7976,27 +7966,27 @@
         <v>86</v>
       </c>
       <c r="B22" s="66">
+        <f t="shared" si="6"/>
+        <v>3.165</v>
+      </c>
+      <c r="C22" s="66">
         <f t="shared" si="1"/>
-        <v>3.165</v>
-      </c>
-      <c r="C22" s="66">
+        <v>0.625</v>
+      </c>
+      <c r="D22" s="66">
         <f t="shared" si="2"/>
-        <v>0.625</v>
-      </c>
-      <c r="D22" s="66">
+        <v>3.5950000000000002</v>
+      </c>
+      <c r="E22" s="66">
         <f t="shared" si="3"/>
-        <v>3.5950000000000002</v>
-      </c>
-      <c r="E22" s="66">
+        <v>4.4466666666666663</v>
+      </c>
+      <c r="F22" s="66">
         <f t="shared" si="4"/>
-        <v>4.4466666666666663</v>
-      </c>
-      <c r="F22" s="66">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="G22" s="37">
         <f t="shared" si="5"/>
-        <v>3.3050000000000002</v>
-      </c>
-      <c r="G22" s="37">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -8005,27 +7995,27 @@
         <v>84</v>
       </c>
       <c r="B23" s="66">
+        <f t="shared" si="6"/>
+        <v>18.990000000000002</v>
+      </c>
+      <c r="C23" s="66">
         <f t="shared" si="1"/>
-        <v>18.990000000000002</v>
-      </c>
-      <c r="C23" s="66">
+        <v>3.75</v>
+      </c>
+      <c r="D23" s="66">
         <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-      <c r="D23" s="66">
+        <v>21.57</v>
+      </c>
+      <c r="E23" s="66">
         <f t="shared" si="3"/>
-        <v>21.57</v>
-      </c>
-      <c r="E23" s="66">
+        <v>26.679999999999996</v>
+      </c>
+      <c r="F23" s="66">
         <f t="shared" si="4"/>
-        <v>26.679999999999996</v>
-      </c>
-      <c r="F23" s="66">
+        <v>19.830000000000002</v>
+      </c>
+      <c r="G23" s="37">
         <f t="shared" si="5"/>
-        <v>19.830000000000002</v>
-      </c>
-      <c r="G23" s="37">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -8040,7 +8030,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="125" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="62"/>
@@ -8062,7 +8052,7 @@
       <c r="F27" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="117"/>
+      <c r="G27" s="125"/>
     </row>
     <row r="28" spans="1:18" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
@@ -8416,38 +8406,38 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="138"/>
-      <c r="B40" s="120" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="121" t="s">
+      <c r="C40" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="117" t="s">
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="120"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="47" t="s">
         <v>72</v>
       </c>
@@ -8463,10 +8453,10 @@
       <c r="G41" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="117"/>
+      <c r="H41" s="125"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="139">
+      <c r="A42" s="118">
         <v>44256</v>
       </c>
       <c r="B42" s="37">
@@ -8497,7 +8487,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="37">
         <v>3</v>
       </c>
@@ -8527,19 +8517,19 @@
       <c r="I43" t="s">
         <v>108</v>
       </c>
-      <c r="N43" s="118" t="s">
+      <c r="N43" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="141"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="37">
         <v>2</v>
       </c>
@@ -8566,17 +8556,17 @@
       <c r="H44" s="37">
         <v>13</v>
       </c>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="118"/>
-      <c r="U44" s="118"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="121"/>
+      <c r="S44" s="121"/>
+      <c r="T44" s="121"/>
+      <c r="U44" s="121"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="139">
+      <c r="A45" s="118">
         <v>44257</v>
       </c>
       <c r="B45" s="37">
@@ -8605,17 +8595,17 @@
       <c r="H45" s="37">
         <v>2</v>
       </c>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="118"/>
-      <c r="T45" s="118"/>
-      <c r="U45" s="118"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="121"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="121"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="140"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="37">
         <v>6</v>
       </c>
@@ -8642,17 +8632,17 @@
       <c r="H46" s="37">
         <v>8</v>
       </c>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="118"/>
-      <c r="T46" s="118"/>
-      <c r="U46" s="118"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="121"/>
+      <c r="R46" s="121"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="121"/>
+      <c r="U46" s="121"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="141"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="37">
         <v>5</v>
       </c>
@@ -8679,17 +8669,17 @@
       <c r="H47" s="37">
         <v>11</v>
       </c>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="118"/>
-      <c r="U47" s="118"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="121"/>
+      <c r="S47" s="121"/>
+      <c r="T47" s="121"/>
+      <c r="U47" s="121"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="139">
+      <c r="A48" s="118">
         <v>44258</v>
       </c>
       <c r="B48" s="37">
@@ -8718,17 +8708,17 @@
       <c r="H48" s="37">
         <v>8</v>
       </c>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="118"/>
-      <c r="U48" s="118"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="121"/>
+      <c r="Q48" s="121"/>
+      <c r="R48" s="121"/>
+      <c r="S48" s="121"/>
+      <c r="T48" s="121"/>
+      <c r="U48" s="121"/>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="37">
         <v>7</v>
       </c>
@@ -8755,17 +8745,17 @@
       <c r="H49" s="37">
         <v>9</v>
       </c>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="118"/>
-      <c r="T49" s="118"/>
-      <c r="U49" s="118"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="121"/>
+      <c r="S49" s="121"/>
+      <c r="T49" s="121"/>
+      <c r="U49" s="121"/>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50" s="141"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="37">
         <v>8</v>
       </c>
@@ -8794,106 +8784,106 @@
       </c>
     </row>
     <row r="54" spans="1:51" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B56" s="71"/>
       <c r="C56" s="49"/>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57" s="136" t="s">
+      <c r="A57" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="124" t="s">
+      <c r="B57" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="121" t="s">
+      <c r="C57" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="121" t="s">
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="127" t="s">
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="N57" s="117" t="s">
+      <c r="N57" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="O57" s="130" t="s">
+      <c r="O57" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="P57" s="130" t="s">
+      <c r="P57" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="R57" s="119" t="s">
+      <c r="R57" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="S57" s="119" t="s">
+      <c r="S57" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="T57" s="119" t="s">
+      <c r="T57" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="U57" s="135" t="s">
+      <c r="U57" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="V57" s="135"/>
-      <c r="W57" s="135"/>
-      <c r="X57" s="135"/>
-      <c r="Y57" s="135"/>
-      <c r="Z57" s="135"/>
-      <c r="AA57" s="135"/>
-      <c r="AB57" s="135"/>
-      <c r="AC57" s="135"/>
-      <c r="AD57" s="135"/>
-      <c r="AE57" s="135"/>
-      <c r="AF57" s="135"/>
-      <c r="AG57" s="135"/>
-      <c r="AH57" s="135"/>
-      <c r="AI57" s="135"/>
-      <c r="AJ57" s="135"/>
-      <c r="AK57" s="135"/>
-      <c r="AL57" s="135"/>
-      <c r="AM57" s="135"/>
-      <c r="AN57" s="135"/>
-      <c r="AO57" s="135"/>
-      <c r="AP57" s="135"/>
-      <c r="AQ57" s="135"/>
-      <c r="AR57" s="135"/>
-      <c r="AS57" s="135"/>
-      <c r="AT57" s="135"/>
-      <c r="AU57" s="135"/>
-      <c r="AV57" s="135"/>
-      <c r="AW57" s="135"/>
-      <c r="AX57" s="135"/>
-      <c r="AY57" s="135"/>
+      <c r="V57" s="113"/>
+      <c r="W57" s="113"/>
+      <c r="X57" s="113"/>
+      <c r="Y57" s="113"/>
+      <c r="Z57" s="113"/>
+      <c r="AA57" s="113"/>
+      <c r="AB57" s="113"/>
+      <c r="AC57" s="113"/>
+      <c r="AD57" s="113"/>
+      <c r="AE57" s="113"/>
+      <c r="AF57" s="113"/>
+      <c r="AG57" s="113"/>
+      <c r="AH57" s="113"/>
+      <c r="AI57" s="113"/>
+      <c r="AJ57" s="113"/>
+      <c r="AK57" s="113"/>
+      <c r="AL57" s="113"/>
+      <c r="AM57" s="113"/>
+      <c r="AN57" s="113"/>
+      <c r="AO57" s="113"/>
+      <c r="AP57" s="113"/>
+      <c r="AQ57" s="113"/>
+      <c r="AR57" s="113"/>
+      <c r="AS57" s="113"/>
+      <c r="AT57" s="113"/>
+      <c r="AU57" s="113"/>
+      <c r="AV57" s="113"/>
+      <c r="AW57" s="113"/>
+      <c r="AX57" s="113"/>
+      <c r="AY57" s="113"/>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A58" s="137"/>
-      <c r="B58" s="125"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="47" t="s">
         <v>72</v>
       </c>
@@ -8924,13 +8914,13 @@
       <c r="L58" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="M58" s="128"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="130"/>
-      <c r="R58" s="131"/>
-      <c r="S58" s="119"/>
-      <c r="T58" s="119"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="132"/>
+      <c r="R58" s="133"/>
+      <c r="S58" s="112"/>
+      <c r="T58" s="112"/>
       <c r="U58">
         <v>1</v>
       </c>
@@ -9086,6 +9076,10 @@
       <c r="P59" s="36">
         <f>N59- O59</f>
         <v>8.8559973958333327</v>
+      </c>
+      <c r="Q59">
+        <f>(SUM(H59:L59)+P72)/960</f>
+        <v>5.1440026041666673</v>
       </c>
       <c r="R59" s="46" t="s">
         <v>88</v>
@@ -9158,8 +9152,8 @@
         <v>0</v>
       </c>
       <c r="Q60" s="103">
-        <f>(SUM(H60:L60)+P70)/960</f>
-        <v>4.7280373263888889</v>
+        <f>(SUM(H60:L60)+P71)/960</f>
+        <v>4.7493081597222222</v>
       </c>
       <c r="R60" s="46" t="s">
         <v>90</v>
@@ -9231,6 +9225,10 @@
       <c r="P61" s="37">
         <v>0</v>
       </c>
+      <c r="Q61">
+        <f>(SUM(H61:L61)+P73)/960</f>
+        <v>5.2641276041666663</v>
+      </c>
       <c r="R61" s="46" t="s">
         <v>91</v>
       </c>
@@ -9691,87 +9689,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>362.4</v>
+      </c>
+      <c r="I69">
+        <v>323.19</v>
+      </c>
+      <c r="J69">
+        <v>712.94</v>
+      </c>
+      <c r="K69">
+        <v>1096.25</v>
+      </c>
+      <c r="L69">
+        <v>1319.05</v>
+      </c>
+      <c r="M69">
+        <f>(SUM(H69:L69)+P71)/960</f>
+        <v>4.7493437499999995</v>
+      </c>
+      <c r="N69">
+        <f>H69+I69+J69+K69+L69+P71</f>
+        <v>4559.37</v>
+      </c>
+    </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M70">
         <f>M59/960</f>
         <v>5.3583360460069448E-3</v>
       </c>
+      <c r="N70">
+        <f>6711.83/960</f>
+        <v>6.9914895833333333</v>
+      </c>
       <c r="P70">
         <v>725.12</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="134" t="s">
+      <c r="A71" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="134"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="134"/>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="134"/>
-      <c r="I71" s="134"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="111"/>
+      <c r="K71" s="111"/>
       <c r="M71">
         <f t="shared" ref="M71:M78" si="28">M60/960</f>
         <v>4.9250388816550923E-3</v>
       </c>
+      <c r="P71">
+        <v>745.54</v>
+      </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="134"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="134"/>
-      <c r="D72" s="134"/>
-      <c r="E72" s="134"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134"/>
-      <c r="H72" s="134"/>
-      <c r="I72" s="134"/>
-      <c r="J72" s="134"/>
-      <c r="K72" s="134"/>
+      <c r="A72" s="111"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="111"/>
+      <c r="J72" s="111"/>
+      <c r="K72" s="111"/>
       <c r="M72">
         <f t="shared" si="28"/>
         <v>5.5056233723958341E-3</v>
       </c>
+      <c r="P72" s="37">
+        <v>1654.23</v>
+      </c>
       <c r="U72" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="134"/>
-      <c r="B73" s="134"/>
-      <c r="C73" s="134"/>
-      <c r="D73" s="134"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="134"/>
-      <c r="J73" s="134"/>
-      <c r="K73" s="134"/>
+      <c r="A73" s="111"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="111"/>
+      <c r="K73" s="111"/>
       <c r="M73">
         <f t="shared" si="28"/>
         <v>4.6684932002314817E-3</v>
       </c>
+      <c r="P73" s="142">
+        <v>725.12</v>
+      </c>
       <c r="U73" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="134"/>
-      <c r="B74" s="134"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="134"/>
-      <c r="I74" s="134"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
+      <c r="A74" s="111"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="111"/>
       <c r="M74">
         <f t="shared" si="28"/>
         <v>2.57611400462963E-3</v>
@@ -9781,17 +9816,17 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="134"/>
-      <c r="B75" s="134"/>
-      <c r="C75" s="134"/>
-      <c r="D75" s="134"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="134"/>
-      <c r="I75" s="134"/>
-      <c r="J75" s="134"/>
-      <c r="K75" s="134"/>
+      <c r="A75" s="111"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="111"/>
+      <c r="K75" s="111"/>
       <c r="M75">
         <f t="shared" si="28"/>
         <v>3.6468713831018522E-3</v>
@@ -9833,14 +9868,12 @@
     <sortCondition ref="G42:G50"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="A71:K75"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:AY57"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="N6:U12"/>
     <mergeCell ref="N43:U49"/>
     <mergeCell ref="S57:S58"/>
@@ -9857,12 +9890,14 @@
     <mergeCell ref="R57:R58"/>
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A71:K75"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:AY57"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/panduan/Rev_Manualisasii1.xlsx
+++ b/panduan/Rev_Manualisasii1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sim23\panduan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCDDE5-96BF-4189-BC86-FF84B00E81A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63116FB1-E6B6-4D51-92B3-AA9E56F99E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ADB28F7E-1517-4DD0-AC52-7FAE16330C3D}"/>
+    <workbookView xWindow="7320" yWindow="-45" windowWidth="21600" windowHeight="11295" xr2:uid="{ADB28F7E-1517-4DD0-AC52-7FAE16330C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Original" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,13 +1236,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1254,9 +1320,6 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,70 +1329,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5955,7 +5954,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7247,7 +7246,7 @@
   <dimension ref="A1:AY78"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7447,16 +7446,16 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="N6" s="121" t="s">
+      <c r="N6" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
@@ -7490,14 +7489,14 @@
       <c r="L7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
@@ -7531,14 +7530,14 @@
       <c r="L8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
@@ -7566,14 +7565,14 @@
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
@@ -7601,34 +7600,34 @@
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -7641,18 +7640,18 @@
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
-      <c r="G13" s="125" t="s">
+      <c r="G13" s="117" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="40"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="134" t="s">
+      <c r="M13" s="112"/>
+      <c r="N13" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="135"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="133"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -7671,9 +7670,9 @@
       <c r="F14" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="125"/>
+      <c r="G14" s="117"/>
       <c r="I14" s="40"/>
-      <c r="M14" s="138"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="37" t="s">
         <v>30</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="66">
-        <f t="shared" ref="B15:B23" si="6">($Q$15 * D3) / ($N$32 * $P$32)</f>
+        <f t="shared" ref="B16:B23" si="6">($Q$15 * D3) / ($N$32 * $P$32)</f>
         <v>107.61</v>
       </c>
       <c r="C16" s="66">
@@ -7802,14 +7801,14 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="M17" s="139"/>
-      <c r="N17" s="136" t="s">
+      <c r="M17" s="114"/>
+      <c r="N17" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
@@ -7839,7 +7838,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="M18" s="140"/>
+      <c r="M18" s="115"/>
       <c r="N18" s="37" t="s">
         <v>30</v>
       </c>
@@ -8030,7 +8029,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
-      <c r="G26" s="125" t="s">
+      <c r="G26" s="117" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="62"/>
@@ -8052,7 +8051,7 @@
       <c r="F27" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="125"/>
+      <c r="G27" s="117"/>
     </row>
     <row r="28" spans="1:18" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
@@ -8406,38 +8405,38 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="141" t="s">
+      <c r="B39" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="141"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
-      <c r="B40" s="122" t="s">
+      <c r="A40" s="138"/>
+      <c r="B40" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="125" t="s">
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="117" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="122"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="120"/>
       <c r="C41" s="47" t="s">
         <v>72</v>
       </c>
@@ -8453,10 +8452,10 @@
       <c r="G41" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="125"/>
+      <c r="H41" s="117"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="118">
+      <c r="A42" s="139">
         <v>44256</v>
       </c>
       <c r="B42" s="37">
@@ -8487,7 +8486,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+      <c r="A43" s="140"/>
       <c r="B43" s="37">
         <v>3</v>
       </c>
@@ -8517,19 +8516,19 @@
       <c r="I43" t="s">
         <v>108</v>
       </c>
-      <c r="N43" s="121" t="s">
+      <c r="N43" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
+      <c r="O43" s="118"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="118"/>
+      <c r="S43" s="118"/>
+      <c r="T43" s="118"/>
+      <c r="U43" s="118"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="120"/>
+      <c r="A44" s="141"/>
       <c r="B44" s="37">
         <v>2</v>
       </c>
@@ -8556,17 +8555,17 @@
       <c r="H44" s="37">
         <v>13</v>
       </c>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="121"/>
-      <c r="U44" s="121"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="118"/>
+      <c r="S44" s="118"/>
+      <c r="T44" s="118"/>
+      <c r="U44" s="118"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="118">
+      <c r="A45" s="139">
         <v>44257</v>
       </c>
       <c r="B45" s="37">
@@ -8595,17 +8594,17 @@
       <c r="H45" s="37">
         <v>2</v>
       </c>
-      <c r="N45" s="121"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="121"/>
-      <c r="R45" s="121"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="121"/>
-      <c r="U45" s="121"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="118"/>
+      <c r="S45" s="118"/>
+      <c r="T45" s="118"/>
+      <c r="U45" s="118"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
+      <c r="A46" s="140"/>
       <c r="B46" s="37">
         <v>6</v>
       </c>
@@ -8632,17 +8631,17 @@
       <c r="H46" s="37">
         <v>8</v>
       </c>
-      <c r="N46" s="121"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="121"/>
-      <c r="S46" s="121"/>
-      <c r="T46" s="121"/>
-      <c r="U46" s="121"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="118"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
+      <c r="A47" s="141"/>
       <c r="B47" s="37">
         <v>5</v>
       </c>
@@ -8669,17 +8668,17 @@
       <c r="H47" s="37">
         <v>11</v>
       </c>
-      <c r="N47" s="121"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="121"/>
-      <c r="Q47" s="121"/>
-      <c r="R47" s="121"/>
-      <c r="S47" s="121"/>
-      <c r="T47" s="121"/>
-      <c r="U47" s="121"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="118">
+      <c r="A48" s="139">
         <v>44258</v>
       </c>
       <c r="B48" s="37">
@@ -8708,17 +8707,17 @@
       <c r="H48" s="37">
         <v>8</v>
       </c>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="121"/>
-      <c r="S48" s="121"/>
-      <c r="T48" s="121"/>
-      <c r="U48" s="121"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="118"/>
+      <c r="T48" s="118"/>
+      <c r="U48" s="118"/>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
+      <c r="A49" s="140"/>
       <c r="B49" s="37">
         <v>7</v>
       </c>
@@ -8745,17 +8744,17 @@
       <c r="H49" s="37">
         <v>9</v>
       </c>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="121"/>
-      <c r="R49" s="121"/>
-      <c r="S49" s="121"/>
-      <c r="T49" s="121"/>
-      <c r="U49" s="121"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="118"/>
+      <c r="R49" s="118"/>
+      <c r="S49" s="118"/>
+      <c r="T49" s="118"/>
+      <c r="U49" s="118"/>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50" s="120"/>
+      <c r="A50" s="141"/>
       <c r="B50" s="37">
         <v>8</v>
       </c>
@@ -8784,106 +8783,106 @@
       </c>
     </row>
     <row r="54" spans="1:51" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B54" s="126" t="s">
+      <c r="B54" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="126"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="126"/>
-      <c r="M54" s="126"/>
-      <c r="N54" s="126"/>
-      <c r="O54" s="126"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B56" s="71"/>
       <c r="C56" s="49"/>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57" s="114" t="s">
+      <c r="A57" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="127" t="s">
+      <c r="B57" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="123" t="s">
+      <c r="C57" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="123" t="s">
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="131"/>
-      <c r="M57" s="129" t="s">
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="N57" s="125" t="s">
+      <c r="N57" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="O57" s="132" t="s">
+      <c r="O57" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="P57" s="132" t="s">
+      <c r="P57" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="R57" s="112" t="s">
+      <c r="R57" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="S57" s="112" t="s">
+      <c r="S57" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="T57" s="112" t="s">
+      <c r="T57" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="U57" s="113" t="s">
+      <c r="U57" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="V57" s="113"/>
-      <c r="W57" s="113"/>
-      <c r="X57" s="113"/>
-      <c r="Y57" s="113"/>
-      <c r="Z57" s="113"/>
-      <c r="AA57" s="113"/>
-      <c r="AB57" s="113"/>
-      <c r="AC57" s="113"/>
-      <c r="AD57" s="113"/>
-      <c r="AE57" s="113"/>
-      <c r="AF57" s="113"/>
-      <c r="AG57" s="113"/>
-      <c r="AH57" s="113"/>
-      <c r="AI57" s="113"/>
-      <c r="AJ57" s="113"/>
-      <c r="AK57" s="113"/>
-      <c r="AL57" s="113"/>
-      <c r="AM57" s="113"/>
-      <c r="AN57" s="113"/>
-      <c r="AO57" s="113"/>
-      <c r="AP57" s="113"/>
-      <c r="AQ57" s="113"/>
-      <c r="AR57" s="113"/>
-      <c r="AS57" s="113"/>
-      <c r="AT57" s="113"/>
-      <c r="AU57" s="113"/>
-      <c r="AV57" s="113"/>
-      <c r="AW57" s="113"/>
-      <c r="AX57" s="113"/>
-      <c r="AY57" s="113"/>
+      <c r="V57" s="135"/>
+      <c r="W57" s="135"/>
+      <c r="X57" s="135"/>
+      <c r="Y57" s="135"/>
+      <c r="Z57" s="135"/>
+      <c r="AA57" s="135"/>
+      <c r="AB57" s="135"/>
+      <c r="AC57" s="135"/>
+      <c r="AD57" s="135"/>
+      <c r="AE57" s="135"/>
+      <c r="AF57" s="135"/>
+      <c r="AG57" s="135"/>
+      <c r="AH57" s="135"/>
+      <c r="AI57" s="135"/>
+      <c r="AJ57" s="135"/>
+      <c r="AK57" s="135"/>
+      <c r="AL57" s="135"/>
+      <c r="AM57" s="135"/>
+      <c r="AN57" s="135"/>
+      <c r="AO57" s="135"/>
+      <c r="AP57" s="135"/>
+      <c r="AQ57" s="135"/>
+      <c r="AR57" s="135"/>
+      <c r="AS57" s="135"/>
+      <c r="AT57" s="135"/>
+      <c r="AU57" s="135"/>
+      <c r="AV57" s="135"/>
+      <c r="AW57" s="135"/>
+      <c r="AX57" s="135"/>
+      <c r="AY57" s="135"/>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A58" s="115"/>
-      <c r="B58" s="117"/>
+      <c r="A58" s="137"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="47" t="s">
         <v>72</v>
       </c>
@@ -8914,13 +8913,13 @@
       <c r="L58" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="M58" s="130"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="132"/>
-      <c r="P58" s="132"/>
-      <c r="R58" s="133"/>
-      <c r="S58" s="112"/>
-      <c r="T58" s="112"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="126"/>
+      <c r="O58" s="130"/>
+      <c r="P58" s="130"/>
+      <c r="R58" s="131"/>
+      <c r="S58" s="119"/>
+      <c r="T58" s="119"/>
       <c r="U58">
         <v>1</v>
       </c>
@@ -9728,19 +9727,19 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="111"/>
-      <c r="C71" s="111"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="111"/>
-      <c r="K71" s="111"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
       <c r="M71">
         <f t="shared" ref="M71:M78" si="28">M60/960</f>
         <v>4.9250388816550923E-3</v>
@@ -9750,17 +9749,17 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="111"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="111"/>
-      <c r="D72" s="111"/>
-      <c r="E72" s="111"/>
-      <c r="F72" s="111"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="111"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="111"/>
-      <c r="K72" s="111"/>
+      <c r="A72" s="134"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="134"/>
+      <c r="F72" s="134"/>
+      <c r="G72" s="134"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134"/>
       <c r="M72">
         <f t="shared" si="28"/>
         <v>5.5056233723958341E-3</v>
@@ -9773,22 +9772,22 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="111"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="111"/>
-      <c r="K73" s="111"/>
+      <c r="A73" s="134"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="134"/>
+      <c r="E73" s="134"/>
+      <c r="F73" s="134"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="134"/>
+      <c r="I73" s="134"/>
+      <c r="J73" s="134"/>
+      <c r="K73" s="134"/>
       <c r="M73">
         <f t="shared" si="28"/>
         <v>4.6684932002314817E-3</v>
       </c>
-      <c r="P73" s="142">
+      <c r="P73">
         <v>725.12</v>
       </c>
       <c r="U73" t="s">
@@ -9796,17 +9795,17 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="111"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="134"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="134"/>
       <c r="M74">
         <f t="shared" si="28"/>
         <v>2.57611400462963E-3</v>
@@ -9816,17 +9815,17 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="111"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="111"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="111"/>
-      <c r="G75" s="111"/>
-      <c r="H75" s="111"/>
-      <c r="I75" s="111"/>
-      <c r="J75" s="111"/>
-      <c r="K75" s="111"/>
+      <c r="A75" s="134"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="134"/>
+      <c r="F75" s="134"/>
+      <c r="G75" s="134"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="134"/>
+      <c r="J75" s="134"/>
+      <c r="K75" s="134"/>
       <c r="M75">
         <f t="shared" si="28"/>
         <v>3.6468713831018522E-3</v>
@@ -9868,12 +9867,14 @@
     <sortCondition ref="G42:G50"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A71:K75"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:AY57"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
     <mergeCell ref="N6:U12"/>
     <mergeCell ref="N43:U49"/>
     <mergeCell ref="S57:S58"/>
@@ -9890,14 +9891,12 @@
     <mergeCell ref="R57:R58"/>
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="A71:K75"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:AY57"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/panduan/Rev_Manualisasii1.xlsx
+++ b/panduan/Rev_Manualisasii1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sim23\panduan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63116FB1-E6B6-4D51-92B3-AA9E56F99E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3956B144-2DCD-454D-8201-FBF53923F12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-45" windowWidth="21600" windowHeight="11295" xr2:uid="{ADB28F7E-1517-4DD0-AC52-7FAE16330C3D}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{ADB28F7E-1517-4DD0-AC52-7FAE16330C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Original" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="108">
   <si>
     <t>TANGGAL ORDER</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>No PO</t>
-  </si>
-  <si>
-    <t>13/3/2021</t>
   </si>
   <si>
     <t>14/3/2021</t>
@@ -1236,6 +1233,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,81 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5599,7 +5596,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5701,8 +5698,8 @@
       <c r="G3" s="9">
         <v>68</v>
       </c>
-      <c r="H3" s="77" t="s">
-        <v>70</v>
+      <c r="H3" s="77">
+        <v>44268</v>
       </c>
       <c r="I3" s="86">
         <v>44267</v>
@@ -5738,7 +5735,7 @@
         <v>44264</v>
       </c>
       <c r="I4" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="58" t="str">
         <f t="shared" si="0"/>
@@ -6226,13 +6223,13 @@
         <v>41</v>
       </c>
       <c r="J11" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="98" t="s">
         <v>105</v>
-      </c>
-      <c r="K11" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="98" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -6778,13 +6775,13 @@
         <v>41</v>
       </c>
       <c r="J24" s="100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="100" t="s">
         <v>103</v>
-      </c>
-      <c r="L24" s="100" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -7272,10 +7269,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="43" t="s">
         <v>55</v>
@@ -7299,7 +7296,7 @@
         <v>44256</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>16</v>
@@ -7326,7 +7323,7 @@
         <v>44256</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>16</v>
@@ -7362,7 +7359,7 @@
         <v>44256</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>16</v>
@@ -7398,7 +7395,7 @@
         <v>44257</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>16</v>
@@ -7425,7 +7422,7 @@
         <v>44257</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>19</v>
@@ -7446,23 +7443,23 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="N6" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
+      <c r="N6" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <v>44257</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>16</v>
@@ -7489,21 +7486,21 @@
       <c r="L7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="75">
         <v>44258</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>16</v>
@@ -7530,21 +7527,21 @@
       <c r="L8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="75">
         <v>44258</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>16</v>
@@ -7565,21 +7562,21 @@
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="75">
         <v>44258</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>16</v>
@@ -7600,38 +7597,38 @@
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>44</v>
@@ -7640,39 +7637,39 @@
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="125" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="40"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="132" t="s">
+      <c r="M13" s="137"/>
+      <c r="N13" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="133"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="135"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="E14" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="F14" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="117"/>
+      <c r="G14" s="125"/>
       <c r="I14" s="40"/>
-      <c r="M14" s="113"/>
+      <c r="M14" s="138"/>
       <c r="N14" s="37" t="s">
         <v>30</v>
       </c>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="66">
         <f>($Q$15 * D2) / ($N$32 * $P$32)</f>
@@ -7746,7 +7743,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="66">
         <f t="shared" ref="B16:B23" si="6">($Q$15 * D3) / ($N$32 * $P$32)</f>
@@ -7775,7 +7772,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="66">
         <f t="shared" si="6"/>
@@ -7801,18 +7798,18 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="111" t="s">
+      <c r="M17" s="139"/>
+      <c r="N17" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="66">
         <f t="shared" si="6"/>
@@ -7838,7 +7835,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="M18" s="115"/>
+      <c r="M18" s="140"/>
       <c r="N18" s="37" t="s">
         <v>30</v>
       </c>
@@ -7857,7 +7854,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="66">
         <f t="shared" si="6"/>
@@ -7904,7 +7901,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="66">
         <f t="shared" si="6"/>
@@ -7933,7 +7930,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="66">
         <f t="shared" si="6"/>
@@ -7962,7 +7959,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="66">
         <f t="shared" si="6"/>
@@ -7991,7 +7988,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="66">
         <f t="shared" si="6"/>
@@ -8020,7 +8017,7 @@
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="63" t="s">
         <v>44</v>
@@ -8029,7 +8026,7 @@
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
-      <c r="G26" s="117" t="s">
+      <c r="G26" s="125" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="62"/>
@@ -8037,25 +8034,25 @@
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="D27" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="E27" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="F27" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="117"/>
+      <c r="G27" s="125"/>
     </row>
     <row r="28" spans="1:18" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="67">
         <f t="shared" ref="B28:G36" si="7">B15</f>
@@ -8099,7 +8096,7 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="67">
         <f t="shared" si="7"/>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="67">
         <f t="shared" si="7"/>
@@ -8187,7 +8184,7 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="67">
         <f t="shared" si="7"/>
@@ -8231,7 +8228,7 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="67">
         <f t="shared" si="7"/>
@@ -8275,7 +8272,7 @@
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="67">
         <f t="shared" si="7"/>
@@ -8319,7 +8316,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="67">
         <f t="shared" si="7"/>
@@ -8348,7 +8345,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="67">
         <f t="shared" si="7"/>
@@ -8377,7 +8374,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="67">
         <f t="shared" si="7"/>
@@ -8405,57 +8402,57 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="116" t="s">
+      <c r="A39" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="138"/>
-      <c r="B40" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="121" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="117" t="s">
-        <v>107</v>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="120"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="122"/>
       <c r="C41" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="E41" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="F41" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="G41" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="117"/>
+      <c r="H41" s="125"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="139">
+      <c r="A42" s="118">
         <v>44256</v>
       </c>
       <c r="B42" s="37">
@@ -8486,7 +8483,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="37">
         <v>3</v>
       </c>
@@ -8514,21 +8511,21 @@
         <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>108</v>
-      </c>
-      <c r="N43" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
+        <v>107</v>
+      </c>
+      <c r="N43" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="141"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="37">
         <v>2</v>
       </c>
@@ -8555,17 +8552,17 @@
       <c r="H44" s="37">
         <v>13</v>
       </c>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="118"/>
-      <c r="U44" s="118"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="121"/>
+      <c r="S44" s="121"/>
+      <c r="T44" s="121"/>
+      <c r="U44" s="121"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="139">
+      <c r="A45" s="118">
         <v>44257</v>
       </c>
       <c r="B45" s="37">
@@ -8594,17 +8591,17 @@
       <c r="H45" s="37">
         <v>2</v>
       </c>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="118"/>
-      <c r="T45" s="118"/>
-      <c r="U45" s="118"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="121"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="121"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="140"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="37">
         <v>6</v>
       </c>
@@ -8631,17 +8628,17 @@
       <c r="H46" s="37">
         <v>8</v>
       </c>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="118"/>
-      <c r="T46" s="118"/>
-      <c r="U46" s="118"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="121"/>
+      <c r="R46" s="121"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="121"/>
+      <c r="U46" s="121"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="141"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="37">
         <v>5</v>
       </c>
@@ -8668,17 +8665,17 @@
       <c r="H47" s="37">
         <v>11</v>
       </c>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="118"/>
-      <c r="U47" s="118"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="121"/>
+      <c r="S47" s="121"/>
+      <c r="T47" s="121"/>
+      <c r="U47" s="121"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="139">
+      <c r="A48" s="118">
         <v>44258</v>
       </c>
       <c r="B48" s="37">
@@ -8707,17 +8704,17 @@
       <c r="H48" s="37">
         <v>8</v>
       </c>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="118"/>
-      <c r="U48" s="118"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="121"/>
+      <c r="Q48" s="121"/>
+      <c r="R48" s="121"/>
+      <c r="S48" s="121"/>
+      <c r="T48" s="121"/>
+      <c r="U48" s="121"/>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="37">
         <v>7</v>
       </c>
@@ -8744,17 +8741,17 @@
       <c r="H49" s="37">
         <v>9</v>
       </c>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="118"/>
-      <c r="T49" s="118"/>
-      <c r="U49" s="118"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="121"/>
+      <c r="S49" s="121"/>
+      <c r="T49" s="121"/>
+      <c r="U49" s="121"/>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50" s="141"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="37">
         <v>8</v>
       </c>
@@ -8783,143 +8780,143 @@
       </c>
     </row>
     <row r="54" spans="1:51" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B56" s="71"/>
       <c r="C56" s="49"/>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="121" t="s">
+      <c r="A57" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="121" t="s">
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="127" t="s">
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="N57" s="117" t="s">
+      <c r="N57" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="O57" s="130" t="s">
+      <c r="O57" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="P57" s="130" t="s">
+      <c r="P57" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="R57" s="119" t="s">
+      <c r="R57" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="S57" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="T57" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="S57" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="T57" s="119" t="s">
+      <c r="U57" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="U57" s="135" t="s">
-        <v>102</v>
-      </c>
-      <c r="V57" s="135"/>
-      <c r="W57" s="135"/>
-      <c r="X57" s="135"/>
-      <c r="Y57" s="135"/>
-      <c r="Z57" s="135"/>
-      <c r="AA57" s="135"/>
-      <c r="AB57" s="135"/>
-      <c r="AC57" s="135"/>
-      <c r="AD57" s="135"/>
-      <c r="AE57" s="135"/>
-      <c r="AF57" s="135"/>
-      <c r="AG57" s="135"/>
-      <c r="AH57" s="135"/>
-      <c r="AI57" s="135"/>
-      <c r="AJ57" s="135"/>
-      <c r="AK57" s="135"/>
-      <c r="AL57" s="135"/>
-      <c r="AM57" s="135"/>
-      <c r="AN57" s="135"/>
-      <c r="AO57" s="135"/>
-      <c r="AP57" s="135"/>
-      <c r="AQ57" s="135"/>
-      <c r="AR57" s="135"/>
-      <c r="AS57" s="135"/>
-      <c r="AT57" s="135"/>
-      <c r="AU57" s="135"/>
-      <c r="AV57" s="135"/>
-      <c r="AW57" s="135"/>
-      <c r="AX57" s="135"/>
-      <c r="AY57" s="135"/>
+      <c r="V57" s="113"/>
+      <c r="W57" s="113"/>
+      <c r="X57" s="113"/>
+      <c r="Y57" s="113"/>
+      <c r="Z57" s="113"/>
+      <c r="AA57" s="113"/>
+      <c r="AB57" s="113"/>
+      <c r="AC57" s="113"/>
+      <c r="AD57" s="113"/>
+      <c r="AE57" s="113"/>
+      <c r="AF57" s="113"/>
+      <c r="AG57" s="113"/>
+      <c r="AH57" s="113"/>
+      <c r="AI57" s="113"/>
+      <c r="AJ57" s="113"/>
+      <c r="AK57" s="113"/>
+      <c r="AL57" s="113"/>
+      <c r="AM57" s="113"/>
+      <c r="AN57" s="113"/>
+      <c r="AO57" s="113"/>
+      <c r="AP57" s="113"/>
+      <c r="AQ57" s="113"/>
+      <c r="AR57" s="113"/>
+      <c r="AS57" s="113"/>
+      <c r="AT57" s="113"/>
+      <c r="AU57" s="113"/>
+      <c r="AV57" s="113"/>
+      <c r="AW57" s="113"/>
+      <c r="AX57" s="113"/>
+      <c r="AY57" s="113"/>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A58" s="137"/>
-      <c r="B58" s="125"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="E58" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="F58" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="G58" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="47" t="s">
-        <v>76</v>
-      </c>
       <c r="H58" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="I58" s="48" t="s">
+      <c r="J58" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="J58" s="47" t="s">
+      <c r="K58" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="K58" s="47" t="s">
+      <c r="L58" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="M58" s="128"/>
-      <c r="N58" s="126"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="130"/>
-      <c r="R58" s="131"/>
-      <c r="S58" s="119"/>
-      <c r="T58" s="119"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="132"/>
+      <c r="R58" s="133"/>
+      <c r="S58" s="112"/>
+      <c r="T58" s="112"/>
       <c r="U58">
         <v>1</v>
       </c>
@@ -9019,7 +9016,7 @@
         <v>44256</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="67">
         <v>0</v>
@@ -9081,7 +9078,7 @@
         <v>5.1440026041666673</v>
       </c>
       <c r="R59" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S59" s="73">
         <v>44256</v>
@@ -9093,7 +9090,7 @@
     <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" s="69"/>
       <c r="B60" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="67">
         <f>H59</f>
@@ -9155,7 +9152,7 @@
         <v>4.7493081597222222</v>
       </c>
       <c r="R60" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S60" s="73">
         <v>44256</v>
@@ -9167,7 +9164,7 @@
     <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="70"/>
       <c r="B61" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="67">
         <f t="shared" ref="C61:C66" si="26">H60</f>
@@ -9229,7 +9226,7 @@
         <v>5.2641276041666663</v>
       </c>
       <c r="R61" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S61" s="73">
         <v>44256</v>
@@ -9243,7 +9240,7 @@
         <v>44257</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="67">
         <v>0</v>
@@ -9300,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="73">
         <v>44257</v>
@@ -9312,7 +9309,7 @@
     <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" s="69"/>
       <c r="B63" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="67">
         <f t="shared" si="26"/>
@@ -9370,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S63" s="73">
         <v>44257</v>
@@ -9382,7 +9379,7 @@
     <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="70"/>
       <c r="B64" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="67">
         <f>H63</f>
@@ -9440,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S64" s="73">
         <v>44257</v>
@@ -9454,7 +9451,7 @@
         <v>44258</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="67">
         <v>0</v>
@@ -9511,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S65" s="73">
         <v>44258</v>
@@ -9523,7 +9520,7 @@
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="69"/>
       <c r="B66" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="67">
         <f t="shared" si="26"/>
@@ -9581,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S66" s="73">
         <v>44258</v>
@@ -9593,7 +9590,7 @@
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="70"/>
       <c r="B67" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="67">
         <f>H66</f>
@@ -9651,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S67" s="73">
         <v>44258</v>
@@ -9727,19 +9724,19 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="134"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="134"/>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="134"/>
-      <c r="I71" s="134"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
+      <c r="A71" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="111"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="111"/>
+      <c r="K71" s="111"/>
       <c r="M71">
         <f t="shared" ref="M71:M78" si="28">M60/960</f>
         <v>4.9250388816550923E-3</v>
@@ -9749,17 +9746,17 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="134"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="134"/>
-      <c r="D72" s="134"/>
-      <c r="E72" s="134"/>
-      <c r="F72" s="134"/>
-      <c r="G72" s="134"/>
-      <c r="H72" s="134"/>
-      <c r="I72" s="134"/>
-      <c r="J72" s="134"/>
-      <c r="K72" s="134"/>
+      <c r="A72" s="111"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="111"/>
+      <c r="J72" s="111"/>
+      <c r="K72" s="111"/>
       <c r="M72">
         <f t="shared" si="28"/>
         <v>5.5056233723958341E-3</v>
@@ -9772,17 +9769,17 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="134"/>
-      <c r="B73" s="134"/>
-      <c r="C73" s="134"/>
-      <c r="D73" s="134"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="134"/>
-      <c r="J73" s="134"/>
-      <c r="K73" s="134"/>
+      <c r="A73" s="111"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="111"/>
+      <c r="K73" s="111"/>
       <c r="M73">
         <f t="shared" si="28"/>
         <v>4.6684932002314817E-3</v>
@@ -9795,17 +9792,17 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="134"/>
-      <c r="B74" s="134"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="134"/>
-      <c r="I74" s="134"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
+      <c r="A74" s="111"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="111"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="111"/>
       <c r="M74">
         <f t="shared" si="28"/>
         <v>2.57611400462963E-3</v>
@@ -9815,17 +9812,17 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="134"/>
-      <c r="B75" s="134"/>
-      <c r="C75" s="134"/>
-      <c r="D75" s="134"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="134"/>
-      <c r="I75" s="134"/>
-      <c r="J75" s="134"/>
-      <c r="K75" s="134"/>
+      <c r="A75" s="111"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="111"/>
+      <c r="K75" s="111"/>
       <c r="M75">
         <f t="shared" si="28"/>
         <v>3.6468713831018522E-3</v>
@@ -9867,14 +9864,12 @@
     <sortCondition ref="G42:G50"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="A71:K75"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:AY57"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="N6:U12"/>
     <mergeCell ref="N43:U49"/>
     <mergeCell ref="S57:S58"/>
@@ -9891,12 +9886,14 @@
     <mergeCell ref="R57:R58"/>
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A71:K75"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:AY57"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
